--- a/track.xlsx
+++ b/track.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\neetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA05B608-C783-44E9-BBC0-D34FED0F736D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,133 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+  <si>
+    <t>ARRAYS</t>
+  </si>
+  <si>
+    <t>HASHING</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Product of Arrays except self</t>
+  </si>
+  <si>
+    <t>TWO POINTERS</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Two Sum II (Sorted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Sum III </t>
+  </si>
+  <si>
+    <t>SLIDING WINDOW</t>
+  </si>
+  <si>
+    <t>Best Time to Buy &amp; Sell Stock</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>STACK</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>BINARY SEARCH</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Valid Soduku</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>❎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Container with Most Water</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Temperatures	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Car Fleet</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>check if sum value-current value exists in hashmap</t>
+  </si>
+  <si>
+    <t>insert char of str-1 in tempHashmap &gt; check char of str-2 in tempHashmap</t>
+  </si>
+  <si>
+    <t>insert in hashmap O(n) &gt; search in hashmap O(n)</t>
+  </si>
+  <si>
+    <t>simple binary search</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +160,75 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4747"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9B9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,18 +236,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FFFF9B9B"/>
+      <color rgb="FFFF4747"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +586,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="82.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>